--- a/biology/Histoire de la zoologie et de la botanique/Pierre_Julien_Cavalerie/Pierre_Julien_Cavalerie.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Pierre_Julien_Cavalerie/Pierre_Julien_Cavalerie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Julien Cavalerie est un missionnaire et important collecteur botanique français né le 4 janvier 1869 à Roussennac (Aveyron) et mort le 31 décembre 1927 à Kunming, Chine - Guizhou.
 Il est admis au séminaire des missions étrangères en 1889 et est ordonné prêtre le 1er juillet 1894.
@@ -515,7 +527,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il est l'auteur de nombreux articles dans la revue fondée par Mgr Hector Léveillé: « Le Monde des plantes » et dans celle de l'Académie internationale de géographie botanique : « Bulletin de l'Académie internationale de géographie botanique » devenue en 1911 « Bulletin de géographie botanique » :
 Note sur quelques monocotylédones du Kouytchéou - Bulletin de l'Académie internationale de géographie botanique, 1905
@@ -551,7 +565,9 @@
           <t>Plantes qui lui ont été dédiées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Un grand nombre d'espèces lui ont été dédiées (environ 230) :
 </t>
